--- a/hardware/electrical/LightSwitch/Lightswitch 1.0 BOM.xlsx
+++ b/hardware/electrical/LightSwitch/Lightswitch 1.0 BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brutu\Desktop\LocalGit\seniorproject\hardware\electrical\LightSwitch\Project Outputs for SeniorProject\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brutu\Desktop\LocalGit\seniorproject\hardware\electrical\LightSwitch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="130">
   <si>
     <t>Designator</t>
   </si>
@@ -402,12 +402,27 @@
   </si>
   <si>
     <t>Quantity We Have</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Price / Lightswitch</t>
+  </si>
+  <si>
+    <t>Price / Outlet</t>
+  </si>
+  <si>
+    <t>Totals:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,7 +443,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,6 +505,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,12 +839,13 @@
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -832,22 +861,31 @@
       <c r="E1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -858,256 +896,366 @@
       <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="G2" s="7">
+        <f>F2*C2</f>
+        <v>0.34</v>
+      </c>
+      <c r="H2" s="7">
+        <f>F2*D2</f>
+        <v>0.34</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G32" si="0">F3*C3</f>
+        <v>0.82</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H32" si="1">F3*D3</f>
+        <v>0.82</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4.51</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>4.51</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="1"/>
+        <v>4.51</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1.08</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.63</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>1.63</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="1"/>
+        <v>1.63</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1118,204 +1266,292 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="7">
+        <v>5.93</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>5.93</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="1"/>
+        <v>5.93</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="J15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>25</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.24</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="0"/>
+        <v>2.48</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="1"/>
+        <v>2.48</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C19" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -1326,48 +1562,70 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -1378,22 +1636,33 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K22" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -1404,152 +1673,218 @@
       <c r="E23" s="3">
         <v>0</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3">
+        <v>10</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>25</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3">
         <v>1</v>
@@ -1560,74 +1895,107 @@
       <c r="E29" s="3">
         <v>10</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="7">
+        <v>1.52</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="0"/>
+        <v>1.52</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="1"/>
+        <v>1.52</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>10</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K31" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -1638,17 +2006,44 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>120</v>
+      <c r="F32" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="0"/>
+        <v>0.69</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.69</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="10">
+        <f>SUM(G2:G32)</f>
+        <v>31.02000000000001</v>
+      </c>
+      <c r="H33" s="10">
+        <f>SUM(H2:H32)</f>
+        <v>24.060000000000009</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:K32">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
